--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/4_Ağrı_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/4_Ağrı_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD53A98C-04B6-41FB-A7FC-26473C2D92B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A7CBF92-3CC9-44B4-852F-249FA17677C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{A4C7C9FE-55C0-4A8D-A74B-A6BC642CB5B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{32DCC322-027D-47C8-B700-563E6B9195D5}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -801,15 +801,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{F089810B-B2D4-4F81-A418-6C49CAFE9E79}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{88B0B7D2-D9A1-488E-AEE2-1B1842946E1C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{41DB13B7-5407-402A-8571-355B7C477724}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{95CD4E9C-BC94-4A67-B258-7BC01EA007C9}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{8735BE3A-4578-4BF8-BCEE-97076EBF625B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DA2C181F-53F1-4E7E-913A-F7B03D48F50E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{70B003D6-6C36-4002-86D5-4E6EB9BFEBBD}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{E5B0F561-33FA-467E-9726-93684526FF6E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{27CEC196-AFEC-4554-94A4-CC0D9DC77BC5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F18858FF-ED46-4D3E-8AB1-39848986D1EB}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{DD64ED84-F194-4A45-B563-E7AFDB21DEF7}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{D4C47A1B-F51B-41BD-A01C-F316061988E9}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{DF360A38-81D5-4093-8C42-3B8DA16F7186}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{539BF719-73AC-4A5B-85B6-4B92275F49D6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{8BD72E87-E38C-4F6F-8078-EDF94A66B1D3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{099BDFBF-C84A-4695-9DB0-70EA3506857D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{E270CE38-29F1-47D6-A363-187D17CC3AB5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{59907F10-B48C-4BB9-B685-E834CDEA3B22}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141407E3-AFBB-4A50-B51F-CB43E206AD89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E4F0C-8B5B-4A81-81FF-7ECD9F65D799}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2443,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55530257-AD45-4678-BC3F-8F22330C2362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E958155E-0BC1-469D-ADDB-F6547E0B990A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3721,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183DECEF-4EB0-4232-AA88-E9A36E6E5C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D178B-84B9-4B97-B9BA-77807E2EB91C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4999,7 +4999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914A80B-EAD8-4DAD-81FE-8414AC157BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9290AB-7495-42A1-98E8-1291CF25B5F6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6275,7 +6275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F6BDD-D019-4237-BD4F-B0CD68CE3B33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D278FF19-367D-4B91-A605-A49DE3BFE1D1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7533,7 +7533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB722E-24B4-44B7-846B-BE87624777A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F49193-6116-4A41-97E5-C3DB9CB781FC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
